--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13125"/>
+    <workbookView windowWidth="28800" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,14 +65,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,48 +521,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,102 +575,102 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,32 +996,32 @@
   <dimension ref="F1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="1.25" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="46.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:10">
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1033,18 +1029,18 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="9:10">
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1052,13 +1048,13 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12675"/>
+    <workbookView windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>芯片型号:</t>
   </si>
@@ -49,10 +49,16 @@
     <t>输出</t>
   </si>
   <si>
-    <t>CAN模式选择</t>
+    <t>GPIO_CAN模式选择</t>
   </si>
   <si>
     <t>PF10</t>
+  </si>
+  <si>
+    <t>ADC1_Channel6</t>
+  </si>
+  <si>
+    <t>PA6</t>
   </si>
 </sst>
 </file>
@@ -666,11 +672,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F1:J4"/>
+  <dimension ref="F1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
@@ -1007,8 +1010,8 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:10">
@@ -1018,10 +1021,10 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1029,18 +1032,18 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="9:10">
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1051,11 +1054,19 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="9:10">
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
